--- a/EPL Data/EPL Data 2.xlsx
+++ b/EPL Data/EPL Data 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA94157-F90A-46EB-9BDB-6BD255F15118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD38A4-62BC-4D5D-A4B6-6EA91F9EB8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="P168" sqref="P168"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="W522" sqref="W522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N533">
         <v>0</v>
